--- a/hii.xlsx
+++ b/hii.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Time</t>
   </si>
@@ -22,7 +22,16 @@
     <t>Dust Level</t>
   </si>
   <si>
-    <t>17:19:47,9.348312522489465</t>
+    <t>17:59:22</t>
+  </si>
+  <si>
+    <t>72.69232558533903</t>
+  </si>
+  <si>
+    <t>57.11054674244281</t>
+  </si>
+  <si>
+    <t>94.55549292934012</t>
   </si>
 </sst>
 </file>
@@ -354,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -372,6 +381,25 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hii.xlsx
+++ b/hii.xlsx
@@ -22,16 +22,16 @@
     <t>Dust Level</t>
   </si>
   <si>
-    <t>17:59:22</t>
-  </si>
-  <si>
-    <t>72.69232558533903</t>
-  </si>
-  <si>
-    <t>57.11054674244281</t>
-  </si>
-  <si>
-    <t>94.55549292934012</t>
+    <t>20:5:27</t>
+  </si>
+  <si>
+    <t>22.804822310888497</t>
+  </si>
+  <si>
+    <t>0.585938</t>
+  </si>
+  <si>
+    <t>4.987632144992207</t>
   </si>
 </sst>
 </file>
@@ -387,10 +387,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
